--- a/attendance/src/main/resources/TestData/BaseData/Settings.xlsx
+++ b/attendance/src/main/resources/TestData/BaseData/Settings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889C213C-8102-4C77-95A2-7AD418B14EE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983F157E-1CAE-4112-BA28-C69510AEBA50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
   <si>
     <t>Shift Name</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Group Company</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <t>EarlyDuration</t>
@@ -263,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +280,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,6 +322,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,36 +607,37 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -684,10 +694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539AFB55-301C-44E6-8E58-02293E7A547F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,11 +709,12 @@
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
     <col min="12" max="12" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -732,17 +743,14 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -770,13 +778,10 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -797,44 +802,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4223DE9E-3B6D-4E6F-885D-FD777854EED3}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +915,7 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
